--- a/datatables/Sprint1_LogIn.xlsx
+++ b/datatables/Sprint1_LogIn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bussiness Flow" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>TC_ID</t>
   </si>
@@ -95,13 +95,25 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Sprint 1_LogOut</t>
+  </si>
+  <si>
+    <t>TEST   DATA</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>TEST2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +121,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +140,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,9 +177,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,6 +588,20 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -566,26 +609,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datatables/Sprint1_LogIn.xlsx
+++ b/datatables/Sprint1_LogIn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Bussiness Flow" sheetId="1" r:id="rId1"/>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/datatables/Sprint1_LogIn.xlsx
+++ b/datatables/Sprint1_LogIn.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Bussiness Flow" sheetId="1" r:id="rId1"/>
-    <sheet name="General data" sheetId="2" r:id="rId2"/>
+    <sheet name="Login_General data" sheetId="2" r:id="rId2"/>
+    <sheet name="Admin_GeneralData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>TC_ID</t>
   </si>
@@ -76,9 +77,6 @@
     <t>Sprint 1_Log in</t>
   </si>
   <si>
-    <t>invokeApp</t>
-  </si>
-  <si>
     <t>LogIn</t>
   </si>
   <si>
@@ -88,32 +86,50 @@
     <t>takeScreenShot</t>
   </si>
   <si>
-    <t>generateReport</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Sprint 1_LogOut</t>
-  </si>
-  <si>
     <t>TEST   DATA</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>TEST2</t>
+    <t>initialize</t>
+  </si>
+  <si>
+    <t>yamini+A@atlogys.com</t>
+  </si>
+  <si>
+    <t>atlogys123</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
+    <t>SERCH_TERM</t>
+  </si>
+  <si>
+    <t>searchByName</t>
+  </si>
+  <si>
+    <t>HappyTails</t>
+  </si>
+  <si>
+    <t>clickOnMerchant</t>
+  </si>
+  <si>
+    <t>Sprint 1_Admin</t>
+  </si>
+  <si>
+    <t>Sprint 1_Merchant Setting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +145,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +170,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,17 +204,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,22 +531,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="10" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -573,71 +607,129 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>"clickOnAllMerchantLink,clickOnMerchant"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="3" customWidth="1"/>
+    <col min="2" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A1048576"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -645,6 +737,5 @@
     <mergeCell ref="A1:A1048576"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datatables/Sprint1_LogIn.xlsx
+++ b/datatables/Sprint1_LogIn.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Bussiness Flow" sheetId="1" r:id="rId1"/>
     <sheet name="Login_General data" sheetId="2" r:id="rId2"/>
     <sheet name="Admin_GeneralData" sheetId="3" r:id="rId3"/>
+    <sheet name="Merchant settings" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>TC_ID</t>
   </si>
@@ -123,6 +124,34 @@
   </si>
   <si>
     <t>Sprint 1_Merchant Setting</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>validateMandatoryFields</t>
+  </si>
+  <si>
+    <t>Merchant Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Email Cc </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>timeZone</t>
+  </si>
+  <si>
+    <t>API Credential.UserID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Credential.Password </t>
   </si>
 </sst>
 </file>
@@ -208,14 +237,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -533,15 +571,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
@@ -632,10 +670,19 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -659,13 +706,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="4" customWidth="1"/>
     <col min="2" max="3" width="26.375" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -714,16 +761,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -738,4 +785,59 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A1048576"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>